--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalva\Documents\Universidad\2021-1\Eda\L7-def\LabCollision-S05-DanielaAlvarez\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C468A14-EFF1-44A2-B35D-CB1C38F27469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -97,15 +97,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +119,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,63 +146,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -307,58 +279,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -408,7 +328,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -481,7 +401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -568,7 +488,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -577,16 +497,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>293052.12099999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>290920.902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>289643.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,16 +515,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>92161.418000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>101674.693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>142206.59899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +614,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -703,16 +623,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>327225.00199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>326675.66600000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>326436.56800000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,16 +641,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>61221.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>68601.581000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>77271.989000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,11 +755,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -957,11 +877,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -995,7 +915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1037,7 +957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,7 +994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1637,7 +1557,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="55" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1648,7 +1568,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="9298609" cy="6073913"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1678,31 +1598,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2001,24 +1921,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +1949,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="B3" s="5">
+        <v>293052.12099999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>92161.418000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="B4" s="6">
+        <v>290920.902</v>
+      </c>
+      <c r="C4" s="6">
+        <v>101674.693</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="B5" s="7">
+        <v>289643.02</v>
+      </c>
+      <c r="C5" s="7">
+        <v>142206.59899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,40 +2000,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="B10" s="5">
+        <v>327225.00199999998</v>
+      </c>
+      <c r="C10" s="5">
+        <v>61221.78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="B11" s="6">
+        <v>326675.66600000003</v>
+      </c>
+      <c r="C11" s="6">
+        <v>68601.581000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="B12" s="7">
+        <v>326436.56800000003</v>
+      </c>
+      <c r="C12" s="7">
+        <v>77271.989000000001</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="21" ht="14.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2339,18 +2259,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2373,6 +2293,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2387,12 +2315,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>